--- a/config_1.19/fish_yutu_random_2.xlsx
+++ b/config_1.19/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -294,15 +294,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,206,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,206,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,13 +379,6 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -490,7 +483,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1167,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1589,10 +1582,10 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H17" s="19">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1613,10 +1606,10 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H18" s="19">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1637,10 +1630,10 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H19" s="19">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1661,10 +1654,10 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H20" s="19">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>
@@ -1862,8 +1855,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1948,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -1965,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -1982,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>66</v>

--- a/config_1.19/fish_yutu_random_2.xlsx
+++ b/config_1.19/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,6 +299,10 @@
   </si>
   <si>
     <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,186,187,133,134,134,206,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,206,207,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1167,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1855,8 +1855,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1924,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>58</v>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -1958,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -1975,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>66</v>
